--- a/Statystyki_2018/Template/aopc2.xlsx
+++ b/Statystyki_2018/Template/aopc2.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -111,7 +111,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(bez czasu trwania mediacji, zgodnie z dz. 2.1.1.1 MS-S1o)</t>
+      <t xml:space="preserve">(łącznie z czasem trwania mediacji, zgodnie z dz. 2.1.1. MS-S1o)</t>
     </r>
   </si>
   <si>
@@ -166,7 +166,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">bez czasu trwania mediacji, zgodnie z MS-S1o</t>
+      <t xml:space="preserve">łącznie z czasem trwania mediacji, zgodnie z MS-S1o</t>
     </r>
     <r>
       <rPr>
@@ -179,25 +179,27 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">terminowość sporządzania uzasadnień </t>
-  </si>
-  <si>
-    <t xml:space="preserve">skargi na przewlekłość</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UWAGI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">terminowość sporządzania uzasadnień przez sędziów </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">od dnia doręczenia sędziemu wniosku do sporządzenia uzasadnienia
+      <t xml:space="preserve">na wniosek
 </t>
     </r>
     <r>
@@ -208,32 +210,49 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(zgodnie z MS-S1o, dz. 1.4.2)*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
+      <t xml:space="preserve">(zgodnie z MS-S1o, dz. 1.4.1.a ) *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">terminowość sporządzania uzasadnień przez sędziów </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">od dnia wpływu wniosku do właściwego sądu 
+      <t xml:space="preserve">z urzędu
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(zgodnie z MS-S1o, dz. 1.4.1) **</t>
-    </r>
+      <t xml:space="preserve">(zgodnie z MS-S1o, dz. 1.4.1.b ) *</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">skargi na przewlekłość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWAGI</t>
   </si>
   <si>
     <t xml:space="preserve">Ogółem</t>
@@ -525,7 +544,7 @@
     <t xml:space="preserve">po upływie terminiu ustawowego</t>
   </si>
   <si>
-    <t xml:space="preserve">uzasadnienia wygłoszone***</t>
+    <t xml:space="preserve">uzasadnienia wygłoszone**</t>
   </si>
   <si>
     <t xml:space="preserve">wpływ </t>
@@ -583,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -609,7 +628,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -619,6 +637,14 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -666,6 +692,7 @@
     </font>
     <font>
       <b val="true"/>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -674,6 +701,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -688,13 +721,6 @@
     <font>
       <b val="true"/>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -726,6 +752,13 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -770,13 +803,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -808,12 +834,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -824,107 +862,95 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -945,94 +971,187 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:BY6"/>
+  <dimension ref="A1:CN6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="63.9"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="1" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="2" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="4" t="s">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="2" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="5" t="s">
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
       <c r="BG2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1049,264 +1168,292 @@
       <c r="BR2" s="6"/>
       <c r="BS2" s="6"/>
       <c r="BT2" s="6"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="7" t="s">
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="64.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="9" t="s">
+    <row r="3" s="1" customFormat="true" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="BT3" s="9"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AI4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AJ4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="16" t="s">
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AO4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AQ4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AR4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AR4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AT4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AT4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV4" s="19" t="s">
+      <c r="AW4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AX4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="AY4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY4" s="19" t="s">
+      <c r="AZ4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AZ4" s="19" t="s">
+      <c r="BA4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BA4" s="19" t="s">
+      <c r="BB4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BB4" s="19" t="s">
+      <c r="BC4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BC4" s="19" t="s">
+      <c r="BD4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="BD4" s="20" t="s">
+      <c r="BE4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BE4" s="20" t="s">
+      <c r="BF4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="BF4" s="21" t="s">
+      <c r="BG4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="BG4" s="22" t="s">
+      <c r="BH4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="BH4" s="19" t="s">
+      <c r="BI4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BI4" s="23" t="s">
+      <c r="BJ4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="BJ4" s="24" t="s">
+      <c r="BK4" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="BK4" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="BL4" s="25"/>
       <c r="BM4" s="25"/>
@@ -1315,246 +1462,326 @@
       <c r="BP4" s="25"/>
       <c r="BQ4" s="25"/>
       <c r="BR4" s="25"/>
-      <c r="BS4" s="26" t="s">
+      <c r="BS4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BY4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="CH4" s="27"/>
+      <c r="CI4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="27" t="s">
+      <c r="CJ4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="BV4" s="16" t="s">
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="BW4" s="16"/>
-      <c r="BX4" s="27" t="s">
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="BY4" s="7"/>
+      <c r="L5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU5" s="24"/>
+      <c r="BV5" s="21"/>
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="CB5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="CE5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="CG5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="21"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS5" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="BT5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU5" s="27"/>
-      <c r="BV5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="BW5" s="27" t="s">
+    <row r="6" s="1" customFormat="true" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="26"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BX5" s="27"/>
-      <c r="BY5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="29"/>
-      <c r="BT6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU6" s="27"/>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
-      <c r="BY6" s="7"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="26"/>
+      <c r="BY6" s="26"/>
+      <c r="BZ6" s="26"/>
+      <c r="CA6" s="26"/>
+      <c r="CB6" s="26"/>
+      <c r="CC6" s="26"/>
+      <c r="CD6" s="26"/>
+      <c r="CE6" s="26"/>
+      <c r="CF6" s="26"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI6" s="28"/>
+      <c r="CJ6" s="28"/>
+      <c r="CK6" s="28"/>
+      <c r="CL6" s="28"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="114">
+    <mergeCell ref="C1:Z1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:J3"/>
@@ -1564,11 +1791,10 @@
     <mergeCell ref="AM2:AT3"/>
     <mergeCell ref="AU2:BC3"/>
     <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="BG2:BT2"/>
-    <mergeCell ref="BU2:BX3"/>
-    <mergeCell ref="BY2:BY6"/>
-    <mergeCell ref="BG3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BG2:BT3"/>
+    <mergeCell ref="BU2:CH3"/>
+    <mergeCell ref="CI2:CL3"/>
+    <mergeCell ref="CM2:CM6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
@@ -1622,8 +1848,14 @@
     <mergeCell ref="BK4:BR4"/>
     <mergeCell ref="BS4:BT4"/>
     <mergeCell ref="BU4:BU6"/>
-    <mergeCell ref="BV4:BW4"/>
+    <mergeCell ref="BV4:BV6"/>
+    <mergeCell ref="BW4:BW6"/>
     <mergeCell ref="BX4:BX6"/>
+    <mergeCell ref="BY4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="CI4:CI6"/>
+    <mergeCell ref="CJ4:CK4"/>
+    <mergeCell ref="CL4:CL6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
@@ -1652,12 +1884,21 @@
     <mergeCell ref="BQ5:BQ6"/>
     <mergeCell ref="BR5:BR6"/>
     <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="CA5:CA6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
